--- a/02_MasterWifoMannheim/99_Backup/Course123.xlsx
+++ b/02_MasterWifoMannheim/99_Backup/Course123.xlsx
@@ -1,139 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mailunimannheimde-my.sharepoint.com/personal/pstapf_mail_uni-mannheim_de/Documents/Uni/Master/Masterarbeit/Course_Suggestion/02_MasterWifoMannheim/03_Courses/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_2B59D2BFD32051265F592811598FC8B25BF5FABF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9C07033B-ABF2-4EC0-A79C-910B8B747AD9}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
-  <si>
-    <t>Modul</t>
-  </si>
-  <si>
-    <t>MAN 666 Alternative Modelle der Führungsethik (kein Angebot im FSS 2021)</t>
-  </si>
-  <si>
-    <t>Lerninhalte</t>
-  </si>
-  <si>
-    <t>Im Seminar werden neue Führungsmodelle diskutiert. ethischen Dimension in den Führungsansätzen. Wichtige unter anderem: Welche neuen Entwicklungen gibt es in der Führungsethik? Wie weit tragen etwa Demokratisierungen der Führungshierarchien? Wie stellt man sich zu Entscheidungen, die Algorithmen statt CWelche normativen Anforderungen sind generell an „gute Führung“ zu stellen?</t>
-  </si>
-  <si>
-    <t>Lern- und Qualifikationsziele</t>
-  </si>
-  <si>
-    <t>Studenten lernen im Seminar, ein Evidenz zu sammeln und ihre Ergebnisse in der Gruppe zu diskutieren.</t>
-  </si>
-  <si>
-    <t>Voraussetzungen</t>
-  </si>
-  <si>
-    <t>Anmeldepflicht:</t>
-  </si>
-  <si>
-    <t>Weitere Infos zur Anmeldung: Portal2/ Homepage des Lehrstuhls</t>
-  </si>
-  <si>
-    <t>Lehrveranstaltungen und -formPräsenzstudiumSelbststudium Seminar (Blockveranstaltung) 2 SWS 4 SWS</t>
-  </si>
-  <si>
-    <t>ECTS</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>Prüfungsform und -umfang</t>
-  </si>
-  <si>
-    <t>Präsentation</t>
-  </si>
-  <si>
-    <t>Vorleistungen</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>Dozent(en)/Modulverantwortlicher</t>
-  </si>
-  <si>
-    <t>Prof. Dr. Torsten Biemann</t>
-  </si>
-  <si>
-    <t>Dauer des Moduls</t>
-  </si>
-  <si>
-    <t>1 Semester</t>
-  </si>
-  <si>
-    <t>Angebotsturnus</t>
-  </si>
-  <si>
-    <t>FSS kein Angebot im FSS 2021</t>
-  </si>
-  <si>
-    <t>Sprache</t>
-  </si>
-  <si>
-    <t>Deutsch</t>
-  </si>
-  <si>
-    <t>Programmspezifische Lernziele</t>
-  </si>
-  <si>
-    <t>Note</t>
-  </si>
-  <si>
-    <t>benotet</t>
-  </si>
-  <si>
-    <t>Verwendbarkeit</t>
-  </si>
-  <si>
-    <t>M.Sc. MMM, M.Sc. Wipäd, M.Sc. Wirt.Inf., M.Sc. VWL</t>
-  </si>
-  <si>
-    <t>MAN 645</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -148,43 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -472,143 +420,209 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1">
+    <row r="1">
+      <c r="A1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B1" s="1">
+      <c r="B1" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>25</v>
-      </c>
-      <c r="B16" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>27</v>
-      </c>
-      <c r="B17" t="s">
-        <v>28</v>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Modul</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MAN 666 Alternative Modelle der Führungsethik </t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Lerninhalte</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Im Seminar werden neue Führungsmodelle diskutiert. ethischen Dimension in den Führungsansätzen. Wichtige unter anderem: Welche neuen Entwicklungen gibt es in der Führungsethik? Wie weit tragen etwa Demokratisierungen der Führungshierarchien? Wie stellt man sich zu Entscheidungen, die Algorithmen statt CWelche normativen Anforderungen sind generell an „gute Führung“ zu stellen?</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Lern- und Qualifikationsziele</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Studenten lernen im Seminar, ein Evidenz zu sammeln und ihre Ergebnisse in der Gruppe zu diskutieren.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Voraussetzungen</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>MAN 645</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Anmeldepflicht:</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Weitere Infos zur Anmeldung: Portal2/ Homepage des Lehrstuhls</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Lehrveranstaltungen und -formPräsenzstudiumSelbststudium Seminar (Blockveranstaltung) 2 SWS 4 SWS</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>ECTS</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Prüfungsform und -umfang</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Präsentation</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Vorleistungen</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Dozent(en)/Modulverantwortlicher</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Prof. Dr. Torsten Biemann</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Dauer des Moduls</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>1 Semester</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Offering</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>SSS</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Sprache</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Deutsch</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Programmspezifische Lernziele</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Note</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>benotet</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Verwendbarkeit</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>M.Sc. MMM, M.Sc. Wipäd, M.Sc. Wirt.Inf., M.Sc. VWL</t>
+        </is>
       </c>
     </row>
   </sheetData>
